--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H2">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I2">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J2">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.9575842446898</v>
+        <v>24.365583</v>
       </c>
       <c r="N2">
-        <v>19.9575842446898</v>
+        <v>73.096749</v>
       </c>
       <c r="O2">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="P2">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="Q2">
-        <v>13.84440967261704</v>
+        <v>19.304031102939</v>
       </c>
       <c r="R2">
-        <v>13.84440967261704</v>
+        <v>173.736279926451</v>
       </c>
       <c r="S2">
-        <v>0.05217183099688885</v>
+        <v>0.05449714134117516</v>
       </c>
       <c r="T2">
-        <v>0.05217183099688885</v>
+        <v>0.05449714134117517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H3">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I3">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J3">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.19938493236157</v>
+        <v>1.228158333333333</v>
       </c>
       <c r="N3">
-        <v>1.19938493236157</v>
+        <v>3.684475</v>
       </c>
       <c r="O3">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="P3">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="Q3">
-        <v>0.832003320401654</v>
+        <v>0.9730284995027778</v>
       </c>
       <c r="R3">
-        <v>0.832003320401654</v>
+        <v>8.757256495525001</v>
       </c>
       <c r="S3">
-        <v>0.003135354821715567</v>
+        <v>0.00274695328574772</v>
       </c>
       <c r="T3">
-        <v>0.003135354821715567</v>
+        <v>0.00274695328574772</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H4">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I4">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J4">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.9785205093745</v>
+        <v>48.48145033333333</v>
       </c>
       <c r="N4">
-        <v>41.9785205093745</v>
+        <v>145.444351</v>
       </c>
       <c r="O4">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="P4">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="Q4">
-        <v>29.12014942573878</v>
+        <v>38.41022089027211</v>
       </c>
       <c r="R4">
-        <v>29.12014942573878</v>
+        <v>345.691988012449</v>
       </c>
       <c r="S4">
-        <v>0.1097375439162807</v>
+        <v>0.1084357575700458</v>
       </c>
       <c r="T4">
-        <v>0.1097375439162807</v>
+        <v>0.1084357575700458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H5">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I5">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J5">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.42250092997338</v>
+        <v>4.595688</v>
       </c>
       <c r="N5">
-        <v>3.42250092997338</v>
+        <v>13.787064</v>
       </c>
       <c r="O5">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406906</v>
       </c>
       <c r="P5">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406905</v>
       </c>
       <c r="Q5">
-        <v>2.374160339173892</v>
+        <v>3.641008880904</v>
       </c>
       <c r="R5">
-        <v>2.374160339173892</v>
+        <v>32.769079928136</v>
       </c>
       <c r="S5">
-        <v>0.008946881441964894</v>
+        <v>0.0102789191826825</v>
       </c>
       <c r="T5">
-        <v>0.008946881441964894</v>
+        <v>0.0102789191826825</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.06030720464197</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H6">
-        <v>2.06030720464197</v>
+        <v>6.233495</v>
       </c>
       <c r="I6">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J6">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.9575842446898</v>
+        <v>24.365583</v>
       </c>
       <c r="N6">
-        <v>19.9575842446898</v>
+        <v>73.096749</v>
       </c>
       <c r="O6">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="P6">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="Q6">
-        <v>41.11875460658347</v>
+        <v>50.62757993419501</v>
       </c>
       <c r="R6">
-        <v>41.11875460658347</v>
+        <v>455.6482194077551</v>
       </c>
       <c r="S6">
-        <v>0.1549535709261988</v>
+        <v>0.1429265403025282</v>
       </c>
       <c r="T6">
-        <v>0.1549535709261988</v>
+        <v>0.1429265403025282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.06030720464197</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H7">
-        <v>2.06030720464197</v>
+        <v>6.233495</v>
       </c>
       <c r="I7">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J7">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.19938493236157</v>
+        <v>1.228158333333333</v>
       </c>
       <c r="N7">
-        <v>1.19938493236157</v>
+        <v>3.684475</v>
       </c>
       <c r="O7">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="P7">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="Q7">
-        <v>2.471101417283565</v>
+        <v>2.551906276680556</v>
       </c>
       <c r="R7">
-        <v>2.471101417283565</v>
+        <v>22.967156490125</v>
       </c>
       <c r="S7">
-        <v>0.009312198105036303</v>
+        <v>0.007204277505982619</v>
       </c>
       <c r="T7">
-        <v>0.009312198105036303</v>
+        <v>0.007204277505982619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.06030720464197</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H8">
-        <v>2.06030720464197</v>
+        <v>6.233495</v>
       </c>
       <c r="I8">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J8">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.9785205093745</v>
+        <v>48.48145033333333</v>
       </c>
       <c r="N8">
-        <v>41.9785205093745</v>
+        <v>145.444351</v>
       </c>
       <c r="O8">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="P8">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="Q8">
-        <v>86.48864824567498</v>
+        <v>100.7362927485272</v>
       </c>
       <c r="R8">
-        <v>86.48864824567498</v>
+        <v>906.626634736745</v>
       </c>
       <c r="S8">
-        <v>0.3259273053980465</v>
+        <v>0.2843882686899872</v>
       </c>
       <c r="T8">
-        <v>0.3259273053980465</v>
+        <v>0.2843882686899872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.06030720464197</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H9">
-        <v>2.06030720464197</v>
+        <v>6.233495</v>
       </c>
       <c r="I9">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J9">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.42250092997338</v>
+        <v>4.595688</v>
       </c>
       <c r="N9">
-        <v>3.42250092997338</v>
+        <v>13.787064</v>
       </c>
       <c r="O9">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406906</v>
       </c>
       <c r="P9">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406905</v>
       </c>
       <c r="Q9">
-        <v>7.051403323917997</v>
+        <v>9.549066056520001</v>
       </c>
       <c r="R9">
-        <v>7.051403323917997</v>
+        <v>85.94159450868</v>
       </c>
       <c r="S9">
-        <v>0.02657279228264906</v>
+        <v>0.02695793431865944</v>
       </c>
       <c r="T9">
-        <v>0.02657279228264906</v>
+        <v>0.02695793431865944</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.686366068743921</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H10">
-        <v>0.686366068743921</v>
+        <v>2.544236</v>
       </c>
       <c r="I10">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J10">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.9575842446898</v>
+        <v>24.365583</v>
       </c>
       <c r="N10">
-        <v>19.9575842446898</v>
+        <v>73.096749</v>
       </c>
       <c r="O10">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="P10">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="Q10">
-        <v>13.69820863965336</v>
+        <v>20.663931143196</v>
       </c>
       <c r="R10">
-        <v>13.69820863965336</v>
+        <v>185.975380288764</v>
       </c>
       <c r="S10">
-        <v>0.05162088113599024</v>
+        <v>0.05833627029349394</v>
       </c>
       <c r="T10">
-        <v>0.05162088113599024</v>
+        <v>0.05833627029349395</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.686366068743921</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H11">
-        <v>0.686366068743921</v>
+        <v>2.544236</v>
       </c>
       <c r="I11">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J11">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.19938493236157</v>
+        <v>1.228158333333333</v>
       </c>
       <c r="N11">
-        <v>1.19938493236157</v>
+        <v>3.684475</v>
       </c>
       <c r="O11">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="P11">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="Q11">
-        <v>0.8232171209357044</v>
+        <v>1.041574881788889</v>
       </c>
       <c r="R11">
-        <v>0.8232171209357044</v>
+        <v>9.3741739361</v>
       </c>
       <c r="S11">
-        <v>0.003102244553781996</v>
+        <v>0.002940466333046099</v>
       </c>
       <c r="T11">
-        <v>0.003102244553781996</v>
+        <v>0.002940466333046099</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.686366068743921</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H12">
-        <v>0.686366068743921</v>
+        <v>2.544236</v>
       </c>
       <c r="I12">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J12">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>41.9785205093745</v>
+        <v>48.48145033333333</v>
       </c>
       <c r="N12">
-        <v>41.9785205093745</v>
+        <v>145.444351</v>
       </c>
       <c r="O12">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="P12">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="Q12">
-        <v>28.81263209370544</v>
+        <v>41.11608375675956</v>
       </c>
       <c r="R12">
-        <v>28.81263209370544</v>
+        <v>370.044753810836</v>
       </c>
       <c r="S12">
-        <v>0.1085786832169191</v>
+        <v>0.1160746693754849</v>
       </c>
       <c r="T12">
-        <v>0.1085786832169191</v>
+        <v>0.1160746693754849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.686366068743921</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H13">
-        <v>0.686366068743921</v>
+        <v>2.544236</v>
       </c>
       <c r="I13">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J13">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.42250092997338</v>
+        <v>4.595688</v>
       </c>
       <c r="N13">
-        <v>3.42250092997338</v>
+        <v>13.787064</v>
       </c>
       <c r="O13">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406906</v>
       </c>
       <c r="P13">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406905</v>
       </c>
       <c r="Q13">
-        <v>2.349088508578243</v>
+        <v>3.897504951456</v>
       </c>
       <c r="R13">
-        <v>2.349088508578243</v>
+        <v>35.077544563104</v>
       </c>
       <c r="S13">
-        <v>0.008852399745774838</v>
+        <v>0.01100303232442936</v>
       </c>
       <c r="T13">
-        <v>0.008852399745774838</v>
+        <v>0.01100303232442936</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5465609439114389</v>
+        <v>0.7843913333333336</v>
       </c>
       <c r="H14">
-        <v>0.5465609439114389</v>
+        <v>2.353174000000001</v>
       </c>
       <c r="I14">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767371</v>
       </c>
       <c r="J14">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767372</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.9575842446898</v>
+        <v>24.365583</v>
       </c>
       <c r="N14">
-        <v>19.9575842446898</v>
+        <v>73.096749</v>
       </c>
       <c r="O14">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="P14">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="Q14">
-        <v>10.90803608296972</v>
+        <v>19.11215213681401</v>
       </c>
       <c r="R14">
-        <v>10.90803608296972</v>
+        <v>172.009369231326</v>
       </c>
       <c r="S14">
-        <v>0.04110628249857944</v>
+        <v>0.05395544851641999</v>
       </c>
       <c r="T14">
-        <v>0.04110628249857944</v>
+        <v>0.05395544851642001</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5465609439114389</v>
+        <v>0.7843913333333336</v>
       </c>
       <c r="H15">
-        <v>0.5465609439114389</v>
+        <v>2.353174000000001</v>
       </c>
       <c r="I15">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767371</v>
       </c>
       <c r="J15">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767372</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.19938493236157</v>
+        <v>1.228158333333333</v>
       </c>
       <c r="N15">
-        <v>1.19938493236157</v>
+        <v>3.684475</v>
       </c>
       <c r="O15">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="P15">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="Q15">
-        <v>0.655536960744697</v>
+        <v>0.963356752627778</v>
       </c>
       <c r="R15">
-        <v>0.655536960744697</v>
+        <v>8.670210773650002</v>
       </c>
       <c r="S15">
-        <v>0.002470351884763426</v>
+        <v>0.002719649011648063</v>
       </c>
       <c r="T15">
-        <v>0.002470351884763426</v>
+        <v>0.002719649011648063</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5465609439114389</v>
+        <v>0.7843913333333336</v>
       </c>
       <c r="H16">
-        <v>0.5465609439114389</v>
+        <v>2.353174000000001</v>
       </c>
       <c r="I16">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767371</v>
       </c>
       <c r="J16">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767372</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.9785205093745</v>
+        <v>48.48145033333333</v>
       </c>
       <c r="N16">
-        <v>41.9785205093745</v>
+        <v>145.444351</v>
       </c>
       <c r="O16">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="P16">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="Q16">
-        <v>22.94381979360942</v>
+        <v>38.02842946889712</v>
       </c>
       <c r="R16">
-        <v>22.94381979360942</v>
+        <v>342.255865220074</v>
       </c>
       <c r="S16">
-        <v>0.08646241457755048</v>
+        <v>0.1073579235703713</v>
       </c>
       <c r="T16">
-        <v>0.08646241457755048</v>
+        <v>0.1073579235703714</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5465609439114389</v>
+        <v>0.7843913333333336</v>
       </c>
       <c r="H17">
-        <v>0.5465609439114389</v>
+        <v>2.353174000000001</v>
       </c>
       <c r="I17">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767371</v>
       </c>
       <c r="J17">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767372</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.42250092997338</v>
+        <v>4.595688</v>
       </c>
       <c r="N17">
-        <v>3.42250092997338</v>
+        <v>13.787064</v>
       </c>
       <c r="O17">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406906</v>
       </c>
       <c r="P17">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406905</v>
       </c>
       <c r="Q17">
-        <v>1.870605338824028</v>
+        <v>3.604817837904001</v>
       </c>
       <c r="R17">
-        <v>1.870605338824028</v>
+        <v>32.443360541136</v>
       </c>
       <c r="S17">
-        <v>0.007049264497859736</v>
+        <v>0.01017674837829775</v>
       </c>
       <c r="T17">
-        <v>0.007049264497859736</v>
+        <v>0.01017674837829775</v>
       </c>
     </row>
   </sheetData>
